--- a/Data/Generated/For Tableau/Part 1/Bucketed_Data.xlsx
+++ b/Data/Generated/For Tableau/Part 1/Bucketed_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phadk\Desktop\Python\Shrikant\Assignment_1_Hiring_Trends\Data\Generated Data\For Tableau\Part 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phadk\Desktop\Python\Shrikant\A1_HiringTrends\Data\Generated\For Tableau\Part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F507D9-2F26-4D89-9F83-1A758F9B0D65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F4969D-A75E-407F-954D-EABB22A4794C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{352D296E-0173-4A61-9D8A-CC9751E960F9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Bucketed_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bucketed_Data!$F$1:$F$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bucketed_Data!$F$1:$F$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>Bucket Header ID</t>
   </si>
@@ -65,12 +65,6 @@
     <t>activity</t>
   </si>
   <si>
-    <t>fis</t>
-  </si>
-  <si>
-    <t>idp</t>
-  </si>
-  <si>
     <t>financial</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
   </si>
   <si>
     <t>conclusion</t>
-  </si>
-  <si>
-    <t>reuters</t>
   </si>
   <si>
     <t>order</t>
@@ -916,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F3DD7C-4C62-4A59-9C4C-BA18C3EF1748}">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E2:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1020,13 +1011,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1034,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1048,13 +1039,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>12</v>
+        <v>2820</v>
       </c>
       <c r="D9" s="3">
-        <v>39</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1062,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3">
-        <v>362</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1076,111 +1067,111 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3">
-        <v>2820</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>1116</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3">
-        <v>16458</v>
+        <v>2202</v>
       </c>
       <c r="D12" s="3">
-        <v>888</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>1521</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3">
-        <v>790</v>
+        <v>245</v>
       </c>
       <c r="D14" s="3">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3">
-        <v>911</v>
+        <v>655</v>
       </c>
       <c r="D15" s="3">
-        <v>339</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3">
-        <v>224</v>
+        <v>1935</v>
       </c>
       <c r="D16" s="3">
-        <v>750</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>3336</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>885</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>2613</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1188,13 +1179,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3">
-        <v>101</v>
+        <v>16458</v>
       </c>
       <c r="D19" s="3">
-        <v>63</v>
+        <v>888</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1202,13 +1193,13 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1216,13 +1207,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3">
-        <v>123</v>
+        <v>790</v>
       </c>
       <c r="D21" s="3">
-        <v>36</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1230,13 +1221,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3">
-        <v>4246</v>
+        <v>911</v>
       </c>
       <c r="D22" s="3">
-        <v>1158</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1244,13 +1235,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="D23" s="3">
-        <v>108</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1258,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>2259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1272,13 +1263,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1286,13 +1277,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1300,13 +1291,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1314,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3">
-        <v>1281</v>
+        <v>123</v>
       </c>
       <c r="D28" s="3">
-        <v>495</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1328,13 +1319,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" s="3">
-        <v>1797</v>
+        <v>4246</v>
       </c>
       <c r="D29" s="3">
-        <v>336</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1342,13 +1333,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="D30" s="3">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1356,13 +1347,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C31" s="3">
-        <v>224</v>
+        <v>690</v>
       </c>
       <c r="D31" s="3">
-        <v>21</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1370,13 +1361,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C32" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1384,10 +1375,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3">
-        <v>4467</v>
+        <v>143</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -1398,13 +1389,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C34" s="3">
-        <v>3381</v>
+        <v>670</v>
       </c>
       <c r="D34" s="3">
-        <v>234</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1412,209 +1403,209 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C35" s="3">
-        <v>272</v>
+        <v>1281</v>
       </c>
       <c r="D35" s="3">
-        <v>102</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="C36" s="3">
-        <v>30</v>
+        <v>1797</v>
       </c>
       <c r="D36" s="3">
-        <v>3</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D37" s="3">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3">
-        <v>11817</v>
+        <v>224</v>
       </c>
       <c r="D38" s="3">
-        <v>3141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="D39" s="3">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3">
-        <v>5280</v>
+        <v>4467</v>
       </c>
       <c r="D40" s="3">
-        <v>642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C41" s="3">
-        <v>329</v>
+        <v>3381</v>
       </c>
       <c r="D41" s="3">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="C43" s="3">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C44" s="3">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D44" s="3">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C45" s="3">
-        <v>2202</v>
+        <v>11817</v>
       </c>
       <c r="D45" s="3">
-        <v>684</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C46" s="3">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="D46" s="3">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C47" s="3">
-        <v>245</v>
+        <v>5280</v>
       </c>
       <c r="D47" s="3">
-        <v>168</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C48" s="3">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C49" s="3">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -1622,237 +1613,237 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C50" s="3">
-        <v>2613</v>
+        <v>3132</v>
       </c>
       <c r="D50" s="3">
-        <v>300</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3">
-        <v>3132</v>
+        <v>6</v>
       </c>
       <c r="D51" s="3">
-        <v>408</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C52" s="3">
-        <v>6</v>
+        <v>13110</v>
       </c>
       <c r="D52" s="3">
-        <v>9</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C53" s="3">
-        <v>13110</v>
+        <v>1916</v>
       </c>
       <c r="D53" s="3">
-        <v>1824</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C54" s="3">
-        <v>1916</v>
+        <v>1</v>
       </c>
       <c r="D54" s="3">
-        <v>318</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D56" s="3">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C57" s="3">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D57" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C58" s="3">
-        <v>1</v>
+        <v>1014</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3">
-        <v>1014</v>
+        <v>152</v>
       </c>
       <c r="D59" s="3">
-        <v>273</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C60" s="3">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="D60" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C61" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C62" s="3">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="D62" s="3">
-        <v>48</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C63" s="3">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="D63" s="3">
-        <v>159</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C64" s="3">
-        <v>30</v>
+        <v>446</v>
       </c>
       <c r="D64" s="3">
-        <v>18</v>
+        <v>948</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C65" s="3">
-        <v>446</v>
+        <v>198</v>
       </c>
       <c r="D65" s="3">
-        <v>948</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C66" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D66" s="3">
-        <v>171</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -1860,83 +1851,83 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C67" s="3">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D67" s="3">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="D68" s="3">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C69" s="3">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D69" s="3">
-        <v>3</v>
+        <v>864</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="3">
-        <v>66</v>
+        <v>686</v>
       </c>
       <c r="D70" s="3">
-        <v>864</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C71" s="3">
-        <v>686</v>
+        <v>456</v>
       </c>
       <c r="D71" s="3">
-        <v>390</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C72" s="3">
-        <v>456</v>
+        <v>9</v>
       </c>
       <c r="D72" s="3">
-        <v>99</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -1944,111 +1935,111 @@
         <v>6</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C73" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D73" s="3">
-        <v>660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C74" s="3">
-        <v>3336</v>
+        <v>0</v>
       </c>
       <c r="D74" s="3">
-        <v>885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C75" s="3">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="D75" s="3">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C76" s="3">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>648</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C77" s="3">
-        <v>832</v>
+        <v>192</v>
       </c>
       <c r="D77" s="3">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C78" s="3">
-        <v>457</v>
+        <v>298</v>
       </c>
       <c r="D78" s="3">
-        <v>648</v>
+        <v>270</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C79" s="3">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="D79" s="3">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C80" s="3">
-        <v>298</v>
+        <v>1974</v>
       </c>
       <c r="D80" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2056,13 +2047,13 @@
         <v>7</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C81" s="3">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="D81" s="3">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2070,10 +2061,10 @@
         <v>7</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C82" s="3">
-        <v>1974</v>
+        <v>5</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -2081,69 +2072,69 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C83" s="3">
-        <v>156</v>
+        <v>1747</v>
       </c>
       <c r="D83" s="3">
-        <v>33</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C84" s="3">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D84" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C85" s="3">
-        <v>1747</v>
+        <v>4</v>
       </c>
       <c r="D85" s="3">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C86" s="3">
-        <v>102</v>
+        <v>3100</v>
       </c>
       <c r="D86" s="3">
-        <v>120</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="3">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="D87" s="3">
         <v>0</v>
@@ -2151,69 +2142,69 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="3">
-        <v>3100</v>
+        <v>46</v>
       </c>
       <c r="D88" s="3">
-        <v>1848</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C89" s="3">
-        <v>346</v>
+        <v>564</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C90" s="3">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="D90" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C91" s="3">
-        <v>564</v>
+        <v>127</v>
       </c>
       <c r="D91" s="3">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C92" s="3">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="D92" s="3">
         <v>0</v>
@@ -2221,58 +2212,58 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C93" s="3">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="D93" s="3">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C94" s="3">
-        <v>4</v>
+        <v>460</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C95" s="3">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c r="D95" s="3">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C96" s="3">
-        <v>460</v>
+        <v>262</v>
       </c>
       <c r="D96" s="3">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -2280,13 +2271,13 @@
         <v>8</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C97" s="3">
-        <v>320</v>
+        <v>3238</v>
       </c>
       <c r="D97" s="3">
-        <v>0</v>
+        <v>870</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -2294,38 +2285,38 @@
         <v>8</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C98" s="3">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="D98" s="3">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C99" s="3">
-        <v>3238</v>
+        <v>17</v>
       </c>
       <c r="D99" s="3">
-        <v>870</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C100" s="3">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
@@ -2336,13 +2327,13 @@
         <v>9</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" s="3">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D101" s="3">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -2350,10 +2341,10 @@
         <v>9</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C102" s="3">
-        <v>406</v>
+        <v>995</v>
       </c>
       <c r="D102" s="3">
         <v>0</v>
@@ -2361,83 +2352,83 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103" s="3">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D103" s="3">
-        <v>81</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C104" s="3">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="D104" s="3">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C105" s="3">
-        <v>68</v>
+        <v>5846</v>
       </c>
       <c r="D105" s="3">
-        <v>219</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="3">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107" s="3">
-        <v>5846</v>
+        <v>1319</v>
       </c>
       <c r="D107" s="3">
-        <v>1887</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C108" s="3">
-        <v>1</v>
+        <v>1238</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
@@ -2445,58 +2436,58 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C109" s="3">
-        <v>1319</v>
+        <v>3511</v>
       </c>
       <c r="D109" s="3">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C110" s="3">
-        <v>1238</v>
+        <v>2505</v>
       </c>
       <c r="D110" s="3">
-        <v>0</v>
+        <v>810</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C111" s="3">
-        <v>3511</v>
+        <v>1957</v>
       </c>
       <c r="D111" s="3">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C112" s="3">
-        <v>2505</v>
+        <v>2842</v>
       </c>
       <c r="D112" s="3">
-        <v>810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -2504,13 +2495,13 @@
         <v>10</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C113" s="3">
-        <v>1957</v>
+        <v>3</v>
       </c>
       <c r="D113" s="3">
-        <v>291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -2518,24 +2509,24 @@
         <v>10</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C114" s="3">
-        <v>2842</v>
+        <v>1377</v>
       </c>
       <c r="D114" s="3">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C115" s="3">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D115" s="3">
         <v>0</v>
@@ -2543,16 +2534,16 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C116" s="3">
-        <v>1377</v>
+        <v>2572</v>
       </c>
       <c r="D116" s="3">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -2563,10 +2554,10 @@
         <v>116</v>
       </c>
       <c r="C117" s="3">
-        <v>28</v>
+        <v>882</v>
       </c>
       <c r="D117" s="3">
-        <v>0</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -2574,10 +2565,10 @@
         <v>11</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C118" s="3">
-        <v>2572</v>
+        <v>130</v>
       </c>
       <c r="D118" s="3">
         <v>0</v>
@@ -2585,142 +2576,142 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C119" s="3">
-        <v>882</v>
+        <v>477</v>
       </c>
       <c r="D119" s="3">
-        <v>3585</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" s="3">
-        <v>130</v>
+        <v>778</v>
       </c>
       <c r="D120" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C121" s="3">
-        <v>477</v>
+        <v>687</v>
       </c>
       <c r="D121" s="3">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C122" s="3">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="D122" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C123" s="3">
-        <v>687</v>
+        <v>318</v>
       </c>
       <c r="D123" s="3">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C124" s="3">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="D124" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C125" s="3">
-        <v>318</v>
+        <v>4362</v>
       </c>
       <c r="D125" s="3">
-        <v>27</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C126" s="3">
-        <v>534</v>
+        <v>0</v>
       </c>
       <c r="D126" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C127" s="3">
-        <v>4362</v>
+        <v>0</v>
       </c>
       <c r="D127" s="3">
-        <v>240</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C128" s="3">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="D128" s="3">
-        <v>0</v>
+        <v>783</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -2728,13 +2719,13 @@
         <v>12</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C129" s="3">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D129" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -2742,66 +2733,66 @@
         <v>12</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C130" s="3">
-        <v>326</v>
+        <v>14</v>
       </c>
       <c r="D130" s="3">
-        <v>783</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C131" s="3">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="D131" s="3">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C132" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D132" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C133" s="3">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="D133" s="3">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C134" s="3">
-        <v>0</v>
+        <v>17678</v>
       </c>
       <c r="D134" s="3">
         <v>0</v>
@@ -2809,27 +2800,27 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C135" s="3">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D135" s="3">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C136" s="3">
-        <v>17678</v>
+        <v>441</v>
       </c>
       <c r="D136" s="3">
         <v>0</v>
@@ -2837,27 +2828,27 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C137" s="3">
-        <v>74</v>
+        <v>13644</v>
       </c>
       <c r="D137" s="3">
-        <v>33</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C138" s="3">
-        <v>441</v>
+        <v>5097</v>
       </c>
       <c r="D138" s="3">
         <v>0</v>
@@ -2865,16 +2856,16 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C139" s="3">
-        <v>13644</v>
+        <v>415</v>
       </c>
       <c r="D139" s="3">
-        <v>2481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -2882,13 +2873,13 @@
         <v>13</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C140" s="3">
-        <v>5097</v>
+        <v>8</v>
       </c>
       <c r="D140" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -2896,83 +2887,83 @@
         <v>13</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C141" s="3">
-        <v>415</v>
+        <v>1471</v>
       </c>
       <c r="D141" s="3">
-        <v>0</v>
+        <v>930</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C142" s="3">
-        <v>8</v>
+        <v>1471</v>
       </c>
       <c r="D142" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C143" s="3">
-        <v>1471</v>
+        <v>4802</v>
       </c>
       <c r="D143" s="3">
-        <v>930</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C144" s="3">
-        <v>1471</v>
+        <v>293</v>
       </c>
       <c r="D144" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C145" s="3">
-        <v>1935</v>
+        <v>472</v>
       </c>
       <c r="D145" s="3">
-        <v>522</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C146" s="3">
-        <v>4802</v>
+        <v>1728</v>
       </c>
       <c r="D146" s="3">
-        <v>1185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -2980,13 +2971,13 @@
         <v>14</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C147" s="3">
-        <v>293</v>
+        <v>10</v>
       </c>
       <c r="D147" s="3">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -2994,13 +2985,13 @@
         <v>14</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C148" s="3">
-        <v>472</v>
+        <v>14</v>
       </c>
       <c r="D148" s="3">
-        <v>567</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3008,122 +2999,122 @@
         <v>14</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C149" s="3">
-        <v>1728</v>
+        <v>143</v>
       </c>
       <c r="D149" s="3">
-        <v>159</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C150" s="3">
-        <v>10</v>
+        <v>403</v>
       </c>
       <c r="D150" s="3">
-        <v>27</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C151" s="3">
-        <v>14</v>
+        <v>370</v>
       </c>
       <c r="D151" s="3">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="C152" s="3">
-        <v>143</v>
+        <v>2859</v>
       </c>
       <c r="D152" s="3">
-        <v>6</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C153" s="3">
-        <v>403</v>
+        <v>18</v>
       </c>
       <c r="D153" s="3">
-        <v>165</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C154" s="3">
-        <v>370</v>
+        <v>1320</v>
       </c>
       <c r="D154" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C155" s="3">
-        <v>2859</v>
+        <v>57</v>
       </c>
       <c r="D155" s="3">
-        <v>237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C156" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D156" s="3">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C157" s="3">
-        <v>1320</v>
+        <v>846</v>
       </c>
       <c r="D157" s="3">
         <v>0</v>
@@ -3131,41 +3122,41 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
+        <v>14</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C158" s="3">
+        <v>66</v>
+      </c>
+      <c r="D158" s="3">
         <v>15</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C158" s="3">
-        <v>57</v>
-      </c>
-      <c r="D158" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C159" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D159" s="3">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C160" s="3">
-        <v>846</v>
+        <v>0</v>
       </c>
       <c r="D160" s="3">
         <v>0</v>
@@ -3173,80 +3164,38 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C161" s="3">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D161" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C162" s="3">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="D162" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>15</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C163" s="3">
-        <v>0</v>
-      </c>
-      <c r="D163" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>15</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C164" s="3">
-        <v>0</v>
-      </c>
-      <c r="D164" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>15</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C165" s="3">
-        <v>276</v>
-      </c>
-      <c r="D165" s="3">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D165">
+  <sortState ref="A2:D170">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="B1:B35 B37:B145 B147:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B144:B162 B44:B142 B1:B42 B171:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
